--- a/Auto_ratios_2000_2020.xlsx
+++ b/Auto_ratios_2000_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sare\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9282754-7AE6-4F77-820C-FFDC25846A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F9410-53B5-48B4-B7D7-9BBCC72B3CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="UK" sheetId="5" r:id="rId4"/>
     <sheet name="Poland" sheetId="6" r:id="rId5"/>
     <sheet name="CI" sheetId="8" r:id="rId6"/>
-    <sheet name="ALL" sheetId="7" r:id="rId7"/>
+    <sheet name="New sheet" sheetId="9" r:id="rId7"/>
+    <sheet name="ALL" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>Année</t>
   </si>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>Loss_Ratio</t>
+  </si>
+  <si>
+    <t>Juste comprendre</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6546EFE-AF3D-4696-A060-8321D4DECCD0}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1339,6 +1343,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535EA139-CBF5-43C2-B390-C5E0D53EDFE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8493CB-1D41-4E36-BF3D-5F3550A04CF7}">
   <dimension ref="A1:C25"/>
   <sheetViews>
